--- a/forecast_summary_B08BR1XDX5.xlsx
+++ b/forecast_summary_B08BR1XDX5.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>0.1601767357765784</v>
       </c>
       <c r="D2" t="n">
-        <v>18.19799108631555</v>
+        <v>18.49838265857091</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-0.9400391776658047</v>
       </c>
       <c r="D3" t="n">
-        <v>18.03193285138999</v>
+        <v>19.27078087100875</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-1.695332587504001</v>
       </c>
       <c r="D4" t="n">
-        <v>16.6801214594402</v>
+        <v>17.28718374493897</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-1.458679577898522</v>
       </c>
       <c r="D5" t="n">
-        <v>17.32121160543586</v>
+        <v>17.43755429941295</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-0.6535713614767048</v>
       </c>
       <c r="D6" t="n">
-        <v>18.51958577755157</v>
+        <v>17.08136535664445</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-0.1230513759927643</v>
       </c>
       <c r="D7" t="n">
-        <v>17.82916665964153</v>
+        <v>17.17410820430997</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>-0.201107090482366</v>
       </c>
       <c r="D8" t="n">
-        <v>17.3333755666677</v>
+        <v>20.02868807398536</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-0.5446714388641777</v>
       </c>
       <c r="D9" t="n">
-        <v>18.3020796476654</v>
+        <v>18.22840533680946</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-0.7415858603561647</v>
       </c>
       <c r="D10" t="n">
-        <v>16.18760334966855</v>
+        <v>18.80577919689526</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-0.8211329017926182</v>
       </c>
       <c r="D11" t="n">
-        <v>17.88072529396714</v>
+        <v>19.73460222391106</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>-1.076497845325092</v>
       </c>
       <c r="D12" t="n">
-        <v>16.45233353052929</v>
+        <v>18.00572868052386</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-1.562765820264089</v>
       </c>
       <c r="D13" t="n">
-        <v>16.69934273513377</v>
+        <v>18.16722710666614</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>-1.988852229606919</v>
       </c>
       <c r="D14" t="n">
-        <v>14.93055331396645</v>
+        <v>16.31836881468456</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-2.10740674459785</v>
       </c>
       <c r="D15" t="n">
-        <v>17.53523651692917</v>
+        <v>16.41638471270224</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-2.034318526639153</v>
       </c>
       <c r="D16" t="n">
-        <v>18.21957630475993</v>
+        <v>16.29195292227206</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>-2.084627655781045</v>
       </c>
       <c r="D17" t="n">
-        <v>17.65255960139326</v>
+        <v>15.63945776751023</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-2.394791575197824</v>
       </c>
       <c r="D18" t="n">
-        <v>15.93595400570127</v>
+        <v>16.63063376539673</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-2.838731621028903</v>
       </c>
       <c r="D19" t="n">
-        <v>15.11325990927089</v>
+        <v>17.08408990622497</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>-3.269329759524685</v>
       </c>
       <c r="D20" t="n">
-        <v>13.98989542104912</v>
+        <v>16.09952736988144</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-3.67629178192115</v>
       </c>
       <c r="D21" t="n">
-        <v>14.87729669243854</v>
+        <v>15.21826258677576</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550M AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1457,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>
